--- a/Code/Results/Cases/Case_2_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_162/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.164729066265807</v>
+        <v>0.5844107609055129</v>
       </c>
       <c r="C2">
-        <v>0.3062385138363197</v>
+        <v>0.1603393385757954</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5924970378707286</v>
+        <v>0.3830702605408334</v>
       </c>
       <c r="F2">
-        <v>2.553524467687481</v>
+        <v>2.974491789485754</v>
       </c>
       <c r="G2">
-        <v>0.0008192969532788331</v>
+        <v>0.002507347822420498</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6145072002730032</v>
+        <v>1.043310562392463</v>
       </c>
       <c r="J2">
-        <v>0.07014416648354072</v>
+        <v>0.1098224562254195</v>
       </c>
       <c r="K2">
-        <v>1.441401704200246</v>
+        <v>0.7315323515092871</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.068558785965941</v>
+        <v>2.074898677527742</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.01030854480652</v>
+        <v>0.5445341824638774</v>
       </c>
       <c r="C3">
-        <v>0.2660429362262562</v>
+        <v>0.1504787813262283</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.5141170567178932</v>
+        <v>0.3653107241800342</v>
       </c>
       <c r="F3">
-        <v>2.314853844558542</v>
+        <v>2.934351508913011</v>
       </c>
       <c r="G3">
-        <v>0.0008253381676993325</v>
+        <v>0.0025110555045518</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6019386141390157</v>
+        <v>1.046327220668587</v>
       </c>
       <c r="J3">
-        <v>0.06744212452693432</v>
+        <v>0.1098414624361794</v>
       </c>
       <c r="K3">
-        <v>1.250626406246198</v>
+        <v>0.682934081753416</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.119942160476491</v>
+        <v>2.095182165799457</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9165845856116164</v>
+        <v>0.5203479662677921</v>
       </c>
       <c r="C4">
-        <v>0.2418231818512879</v>
+        <v>0.1445238304920196</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.466651664433499</v>
+        <v>0.354612804271305</v>
       </c>
       <c r="F4">
-        <v>2.173022775801883</v>
+        <v>2.911429858977712</v>
       </c>
       <c r="G4">
-        <v>0.0008291509814599825</v>
+        <v>0.002513450718006661</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5955428018462996</v>
+        <v>1.048709053007826</v>
       </c>
       <c r="J4">
-        <v>0.06594565317062973</v>
+        <v>0.1099139044731885</v>
       </c>
       <c r="K4">
-        <v>1.135039781366686</v>
+        <v>0.6534889827458414</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.153137374824901</v>
+        <v>2.108332443790353</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8786298641036012</v>
+        <v>0.5105668322974566</v>
       </c>
       <c r="C5">
-        <v>0.232055190256176</v>
+        <v>0.1421219845714745</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.4474534235736058</v>
+        <v>0.3503050837856279</v>
       </c>
       <c r="F5">
-        <v>2.116305690657342</v>
+        <v>2.902521718270933</v>
       </c>
       <c r="G5">
-        <v>0.0008307316562122225</v>
+        <v>0.00251445672724318</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5932484777727751</v>
+        <v>1.049812601953221</v>
       </c>
       <c r="J5">
-        <v>0.06537385245389871</v>
+        <v>0.1099586680568585</v>
       </c>
       <c r="K5">
-        <v>1.088277603081053</v>
+        <v>0.6415888239766332</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.167063343377933</v>
+        <v>2.113866116251359</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8723409216796085</v>
+        <v>0.5089472082655675</v>
       </c>
       <c r="C6">
-        <v>0.2304389775108859</v>
+        <v>0.1417246555904654</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.444273681125722</v>
+        <v>0.3495929122204018</v>
       </c>
       <c r="F6">
-        <v>2.106950177365107</v>
+        <v>2.901068626732965</v>
       </c>
       <c r="G6">
-        <v>0.0008309957772674048</v>
+        <v>0.002514625585666616</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5928857869033024</v>
+        <v>1.050003867346689</v>
       </c>
       <c r="J6">
-        <v>0.06528112213644732</v>
+        <v>0.1099670205214665</v>
       </c>
       <c r="K6">
-        <v>1.080531952329778</v>
+        <v>0.6396187821155763</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.169399394671885</v>
+        <v>2.1147955310844</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9160717945127033</v>
+        <v>0.5202157510607321</v>
       </c>
       <c r="C7">
-        <v>0.2416910531054128</v>
+        <v>0.1444913379837658</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4663921935336219</v>
+        <v>0.3545544994436653</v>
       </c>
       <c r="F7">
-        <v>2.172253628878735</v>
+        <v>2.911307970433171</v>
       </c>
       <c r="G7">
-        <v>0.0008291721887667621</v>
+        <v>0.002513464164135429</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.595510622161278</v>
+        <v>1.048723397934594</v>
       </c>
       <c r="J7">
-        <v>0.0659377913425061</v>
+        <v>0.1099144465032644</v>
       </c>
       <c r="K7">
-        <v>1.134407815246561</v>
+        <v>0.6533280926603595</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.153323590421621</v>
+        <v>2.108406365267534</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.111236100815574</v>
+        <v>0.5705993992849017</v>
       </c>
       <c r="C8">
-        <v>0.2922747120184681</v>
+        <v>0.1569186683289558</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.5653209601523628</v>
+        <v>0.3769038088499599</v>
       </c>
       <c r="F8">
-        <v>2.470186777204347</v>
+        <v>2.960292810033962</v>
       </c>
       <c r="G8">
-        <v>0.0008213590469127731</v>
+        <v>0.002508601657330624</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.609886670197838</v>
+        <v>1.04424064424353</v>
       </c>
       <c r="J8">
-        <v>0.06917696668121565</v>
+        <v>0.1098163725891652</v>
       </c>
       <c r="K8">
-        <v>1.375269678868108</v>
+        <v>0.7146936487876019</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.085924769342469</v>
+        <v>2.081747809907078</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.504375749165405</v>
+        <v>0.6717747354526296</v>
       </c>
       <c r="C9">
-        <v>0.3958179883631203</v>
+        <v>0.1820869130135065</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.7656400445859504</v>
+        <v>0.4223792506681718</v>
       </c>
       <c r="F9">
-        <v>3.097023991922669</v>
+        <v>3.070093231799206</v>
       </c>
       <c r="G9">
-        <v>0.0008068145266755256</v>
+        <v>0.002500003543264998</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.649554670883461</v>
+        <v>1.039663658355934</v>
       </c>
       <c r="J9">
-        <v>0.07696001847595113</v>
+        <v>0.1101081405951803</v>
       </c>
       <c r="K9">
-        <v>1.862346277178546</v>
+        <v>0.8381784187685639</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9675523883476913</v>
+        <v>2.035003226755862</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.802285799347032</v>
+        <v>0.7475738205519065</v>
       </c>
       <c r="C10">
-        <v>0.4756140834118696</v>
+        <v>0.2010792749191523</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.9183447426394338</v>
+        <v>0.4568128779563239</v>
       </c>
       <c r="F10">
-        <v>3.591514513022958</v>
+        <v>3.159233035162544</v>
       </c>
       <c r="G10">
-        <v>0.0007965352843487164</v>
+        <v>0.002494251648185358</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6872100454645675</v>
+        <v>1.038887095219764</v>
       </c>
       <c r="J10">
-        <v>0.08376690189727753</v>
+        <v>0.1106204398331698</v>
       </c>
       <c r="K10">
-        <v>2.232955283561665</v>
+        <v>0.9308558378941711</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8901196877154334</v>
+        <v>2.004044668464076</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.940460628588596</v>
+        <v>0.7823796787389483</v>
       </c>
       <c r="C11">
-        <v>0.5129938459191408</v>
+        <v>0.2098315329916716</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9894404425718903</v>
+        <v>0.47270386642451</v>
       </c>
       <c r="F11">
-        <v>3.825855040987278</v>
+        <v>3.201645087382246</v>
       </c>
       <c r="G11">
-        <v>0.0007919306974291649</v>
+        <v>0.002491756347313045</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.7065672490855732</v>
+        <v>1.039099258019569</v>
       </c>
       <c r="J11">
-        <v>0.08715433985701537</v>
+        <v>0.1109188213614303</v>
       </c>
       <c r="K11">
-        <v>2.405266509494794</v>
+        <v>0.9734494934932059</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8572465635583129</v>
+        <v>1.990698353234315</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.993228490270582</v>
+        <v>0.7956066114278144</v>
       </c>
       <c r="C12">
-        <v>0.5273293054816008</v>
+        <v>0.2131621943268556</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.016637054392262</v>
+        <v>0.4787542641138742</v>
       </c>
       <c r="F12">
-        <v>3.916133859821826</v>
+        <v>3.217974636691906</v>
       </c>
       <c r="G12">
-        <v>0.0007901958106724983</v>
+        <v>0.002490828778619148</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7142531814093473</v>
+        <v>1.039261208412881</v>
       </c>
       <c r="J12">
-        <v>0.08848404611288885</v>
+        <v>0.1110412542488035</v>
       </c>
       <c r="K12">
-        <v>2.471138957025204</v>
+        <v>0.9896414955020703</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8451633587902521</v>
+        <v>1.98575067536953</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.981843171664536</v>
+        <v>0.7927558765242111</v>
       </c>
       <c r="C13">
-        <v>0.5242334445831318</v>
+        <v>0.2124441456774377</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1.01076689498592</v>
+        <v>0.4774497397508668</v>
       </c>
       <c r="F13">
-        <v>3.896619017390776</v>
+        <v>3.214445790408803</v>
       </c>
       <c r="G13">
-        <v>0.0007905690852661497</v>
+        <v>0.002491027777097585</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7125814488728182</v>
+        <v>1.039222695077775</v>
       </c>
       <c r="J13">
-        <v>0.08819549389806269</v>
+        <v>0.1110144654286813</v>
       </c>
       <c r="K13">
-        <v>2.456922996815052</v>
+        <v>0.9861514648217167</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8477489914372001</v>
+        <v>1.986811514265725</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.944792591384726</v>
+        <v>0.783466930011997</v>
       </c>
       <c r="C14">
-        <v>0.5141694593473858</v>
+        <v>0.2101052193138457</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9916721829790021</v>
+        <v>0.4732009773196921</v>
       </c>
       <c r="F14">
-        <v>3.833250331743898</v>
+        <v>3.202983130127109</v>
       </c>
       <c r="G14">
-        <v>0.0007917878006941754</v>
+        <v>0.002491679688413104</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.707192228148763</v>
+        <v>1.039110944472021</v>
       </c>
       <c r="J14">
-        <v>0.08726276311076475</v>
+        <v>0.1109287044781908</v>
       </c>
       <c r="K14">
-        <v>2.410672878087439</v>
+        <v>0.9747803609043331</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8562449878164315</v>
+        <v>1.990289172904653</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.922157836425527</v>
+        <v>0.7777832666262157</v>
       </c>
       <c r="C15">
-        <v>0.5080292894873537</v>
+        <v>0.2086746970218201</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9800130963870686</v>
+        <v>0.4706027681454401</v>
       </c>
       <c r="F15">
-        <v>3.794641577878849</v>
+        <v>3.195996993279465</v>
       </c>
       <c r="G15">
-        <v>0.0007925353938337815</v>
+        <v>0.002492081259739396</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.7039386257827474</v>
+        <v>1.039053130899987</v>
       </c>
       <c r="J15">
-        <v>0.08669771554567518</v>
+        <v>0.110877404497451</v>
       </c>
       <c r="K15">
-        <v>2.382427085417021</v>
+        <v>0.9678234060437205</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8614974346708877</v>
+        <v>1.992433189842416</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.793314340178256</v>
+        <v>0.7453057093071891</v>
       </c>
       <c r="C16">
-        <v>0.4731950556058848</v>
+        <v>0.2005095748631049</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.9137345653300457</v>
+        <v>0.4557789475206704</v>
       </c>
       <c r="F16">
-        <v>3.576404459835288</v>
+        <v>3.156498883606247</v>
       </c>
       <c r="G16">
-        <v>0.0007968375179832584</v>
+        <v>0.00249441715459664</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6859927763372582</v>
+        <v>1.038884633374138</v>
       </c>
       <c r="J16">
-        <v>0.0835518041870742</v>
+        <v>0.1106022586193234</v>
       </c>
       <c r="K16">
-        <v>2.221776414074839</v>
+        <v>0.92808100283969</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.892317581684928</v>
+        <v>2.00493173671827</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.714995151345249</v>
+        <v>0.7254649196460718</v>
       </c>
       <c r="C17">
-        <v>0.4521191038020902</v>
+        <v>0.195529493714389</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.8735191310525039</v>
+        <v>0.4467432762646268</v>
       </c>
       <c r="F17">
-        <v>3.445056585613997</v>
+        <v>3.132745860659583</v>
       </c>
       <c r="G17">
-        <v>0.0007994940157348007</v>
+        <v>0.002495881144680798</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6755781726736103</v>
+        <v>1.038926297981718</v>
       </c>
       <c r="J17">
-        <v>0.08169987510448351</v>
+        <v>0.1104502326447161</v>
       </c>
       <c r="K17">
-        <v>2.124234103560781</v>
+        <v>0.9038117306001539</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9118452988646055</v>
+        <v>2.012788149965616</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.670193730609469</v>
+        <v>0.7140835598649744</v>
       </c>
       <c r="C18">
-        <v>0.4400967702627838</v>
+        <v>0.1926756638951588</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.8505390101266386</v>
+        <v>0.4415675480207284</v>
       </c>
       <c r="F18">
-        <v>3.370380549462595</v>
+        <v>3.119258923666081</v>
       </c>
       <c r="G18">
-        <v>0.0008010287912477826</v>
+        <v>0.002496734612643546</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.669795304216386</v>
+        <v>1.039003464596419</v>
       </c>
       <c r="J18">
-        <v>0.08066174204164156</v>
+        <v>0.110368938012428</v>
       </c>
       <c r="K18">
-        <v>2.068474687316183</v>
+        <v>0.8898935427130823</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9232966687479021</v>
+        <v>2.017376291039213</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.655065144202354</v>
+        <v>0.7102352704293367</v>
       </c>
       <c r="C19">
-        <v>0.4360426658352026</v>
+        <v>0.1917112177734168</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.842783084744994</v>
+        <v>0.4398187967173612</v>
       </c>
       <c r="F19">
-        <v>3.345240859850634</v>
+        <v>3.114722525933161</v>
       </c>
       <c r="G19">
-        <v>0.0008015496561283596</v>
+        <v>0.002497025546340538</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6678719150083339</v>
+        <v>1.039038720301662</v>
       </c>
       <c r="J19">
-        <v>0.08031474665828142</v>
+        <v>0.1103424673125133</v>
       </c>
       <c r="K19">
-        <v>2.049652145047588</v>
+        <v>0.8851880924278532</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9272108370145489</v>
+        <v>2.01894165638361</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.723306502073711</v>
+        <v>0.7275738446947742</v>
       </c>
       <c r="C20">
-        <v>0.4543521517981617</v>
+        <v>0.1960585353883175</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.8777842583707383</v>
+        <v>0.4477029278079101</v>
       </c>
       <c r="F20">
-        <v>3.45894726772292</v>
+        <v>3.135256271431018</v>
       </c>
       <c r="G20">
-        <v>0.000799210530841131</v>
+        <v>0.002495724119275855</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6766651217011415</v>
+        <v>1.038916354301527</v>
       </c>
       <c r="J20">
-        <v>0.08189418152817751</v>
+        <v>0.1104657795698074</v>
       </c>
       <c r="K20">
-        <v>2.134581409975681</v>
+        <v>0.906391005751459</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.909743631834921</v>
+        <v>2.011944642633708</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.955662662640918</v>
+        <v>0.7861940506535916</v>
       </c>
       <c r="C21">
-        <v>0.5171203800483681</v>
+        <v>0.2107917728608868</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.9972729789559196</v>
+        <v>0.4744480494427563</v>
       </c>
       <c r="F21">
-        <v>3.851819871251166</v>
+        <v>3.206342679691943</v>
       </c>
       <c r="G21">
-        <v>0.0007914296093272912</v>
+        <v>0.002491487736475489</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.7087652153814048</v>
+        <v>1.039141551069683</v>
       </c>
       <c r="J21">
-        <v>0.08753541066931803</v>
+        <v>0.1109536379077483</v>
       </c>
       <c r="K21">
-        <v>2.424240038502234</v>
+        <v>0.9781186256931562</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8537393679609337</v>
+        <v>1.9892648132316</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.110143105724717</v>
+        <v>0.8247780307439143</v>
       </c>
       <c r="C22">
-        <v>0.5592093312214672</v>
+        <v>0.2205163080210184</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.076986194280906</v>
+        <v>0.4921189539396096</v>
       </c>
       <c r="F22">
-        <v>4.117659634042298</v>
+        <v>3.254370454385622</v>
       </c>
       <c r="G22">
-        <v>0.0007863946291819149</v>
+        <v>0.002488820089259308</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.7318375740239915</v>
+        <v>1.039764552017004</v>
       </c>
       <c r="J22">
-        <v>0.09149879122369953</v>
+        <v>0.1113275407195573</v>
       </c>
       <c r="K22">
-        <v>2.617221314444691</v>
+        <v>1.025362417502436</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8192803955381436</v>
+        <v>1.975061878597572</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.027431627053971</v>
+        <v>0.8041601019435518</v>
       </c>
       <c r="C23">
-        <v>0.5366389865538395</v>
+        <v>0.2153173382806415</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1.034279014745124</v>
+        <v>0.4826700810072992</v>
       </c>
       <c r="F23">
-        <v>3.974877621252091</v>
+        <v>3.22859316145491</v>
       </c>
       <c r="G23">
-        <v>0.0007890778312626967</v>
+        <v>0.002490234644163029</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.7193191542229087</v>
+        <v>1.039388406429865</v>
       </c>
       <c r="J23">
-        <v>0.08935631258571419</v>
+        <v>0.1111229280501007</v>
       </c>
       <c r="K23">
-        <v>2.513856191580913</v>
+        <v>1.000113969840953</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8374659816811132</v>
+        <v>1.982585447906459</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.719548243207214</v>
+        <v>0.7266203206446278</v>
       </c>
       <c r="C24">
-        <v>0.4533422982865147</v>
+        <v>0.1958193267405761</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.8758555603599945</v>
+        <v>0.4472690101831347</v>
       </c>
       <c r="F24">
-        <v>3.452664695343657</v>
+        <v>3.134120788394114</v>
       </c>
       <c r="G24">
-        <v>0.0007993386707967725</v>
+        <v>0.002495795073597106</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6761730773141323</v>
+        <v>1.038920684093867</v>
       </c>
       <c r="J24">
-        <v>0.08180625322752633</v>
+        <v>0.1104587317863235</v>
       </c>
       <c r="K24">
-        <v>2.12990240572725</v>
+        <v>0.9052248078882883</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9106930978468739</v>
+        <v>2.0123257699383</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.396640080046154</v>
+        <v>0.6441481385176644</v>
       </c>
       <c r="C25">
-        <v>0.3672370088044943</v>
+        <v>0.1751912735393262</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.7106090937847682</v>
+        <v>0.4098986244266314</v>
       </c>
       <c r="F25">
-        <v>2.922111184833255</v>
+        <v>3.038908726877082</v>
       </c>
       <c r="G25">
-        <v>0.000810672592730888</v>
+        <v>0.002502229868535008</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6374470500893494</v>
+        <v>1.040448967481709</v>
       </c>
       <c r="J25">
-        <v>0.07468025666533151</v>
+        <v>0.1099770945790226</v>
       </c>
       <c r="K25">
-        <v>1.728633401134033</v>
+        <v>0.8044320492000736</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9979888524181391</v>
+        <v>2.04705535933752</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_162/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5844107609055129</v>
+        <v>1.164729066265778</v>
       </c>
       <c r="C2">
-        <v>0.1603393385757954</v>
+        <v>0.3062385138362913</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3830702605408334</v>
+        <v>0.5924970378707712</v>
       </c>
       <c r="F2">
-        <v>2.974491789485754</v>
+        <v>2.553524467687495</v>
       </c>
       <c r="G2">
-        <v>0.002507347822420498</v>
+        <v>0.000819296953276612</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.043310562392463</v>
+        <v>0.6145072002730032</v>
       </c>
       <c r="J2">
-        <v>0.1098224562254195</v>
+        <v>0.07014416648358335</v>
       </c>
       <c r="K2">
-        <v>0.7315323515092871</v>
+        <v>1.441401704200189</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.074898677527742</v>
+        <v>1.068558785965919</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5445341824638774</v>
+        <v>1.010308544806662</v>
       </c>
       <c r="C3">
-        <v>0.1504787813262283</v>
+        <v>0.2660429362262562</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3653107241800342</v>
+        <v>0.5141170567179003</v>
       </c>
       <c r="F3">
-        <v>2.934351508913011</v>
+        <v>2.314853844558542</v>
       </c>
       <c r="G3">
-        <v>0.0025110555045518</v>
+        <v>0.0008253381676937759</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.046327220668587</v>
+        <v>0.601938614139037</v>
       </c>
       <c r="J3">
-        <v>0.1098414624361794</v>
+        <v>0.06744212452696985</v>
       </c>
       <c r="K3">
-        <v>0.682934081753416</v>
+        <v>1.250626406246226</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.095182165799457</v>
+        <v>1.119942160476533</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5203479662677921</v>
+        <v>0.9165845856116164</v>
       </c>
       <c r="C4">
-        <v>0.1445238304920196</v>
+        <v>0.2418231818512595</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.354612804271305</v>
+        <v>0.4666516644334706</v>
       </c>
       <c r="F4">
-        <v>2.911429858977712</v>
+        <v>2.173022775801869</v>
       </c>
       <c r="G4">
-        <v>0.002513450718006661</v>
+        <v>0.0008291509814295082</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.048709053007826</v>
+        <v>0.5955428018462925</v>
       </c>
       <c r="J4">
-        <v>0.1099139044731885</v>
+        <v>0.06594565317068302</v>
       </c>
       <c r="K4">
-        <v>0.6534889827458414</v>
+        <v>1.1350397813668</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.108332443790353</v>
+        <v>1.153137374824937</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5105668322974566</v>
+        <v>0.8786298641035728</v>
       </c>
       <c r="C5">
-        <v>0.1421219845714745</v>
+        <v>0.2320551902560624</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3503050837856279</v>
+        <v>0.4474534235736414</v>
       </c>
       <c r="F5">
-        <v>2.902521718270933</v>
+        <v>2.116305690657384</v>
       </c>
       <c r="G5">
-        <v>0.00251445672724318</v>
+        <v>0.0008307316561800825</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.049812601953221</v>
+        <v>0.5932484777727609</v>
       </c>
       <c r="J5">
-        <v>0.1099586680568585</v>
+        <v>0.06537385245388094</v>
       </c>
       <c r="K5">
-        <v>0.6415888239766332</v>
+        <v>1.088277603081025</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.113866116251359</v>
+        <v>1.167063343377897</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5089472082655675</v>
+        <v>0.8723409216795801</v>
       </c>
       <c r="C6">
-        <v>0.1417246555904654</v>
+        <v>0.2304389775112128</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3495929122204018</v>
+        <v>0.4442736811257149</v>
       </c>
       <c r="F6">
-        <v>2.901068626732965</v>
+        <v>2.106950177365064</v>
       </c>
       <c r="G6">
-        <v>0.002514625585666616</v>
+        <v>0.0008309957773560127</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.050003867346689</v>
+        <v>0.5928857869033095</v>
       </c>
       <c r="J6">
-        <v>0.1099670205214665</v>
+        <v>0.0652811221364864</v>
       </c>
       <c r="K6">
-        <v>0.6396187821155763</v>
+        <v>1.080531952329807</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.1147955310844</v>
+        <v>1.169399394671856</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5202157510607321</v>
+        <v>0.9160717945124759</v>
       </c>
       <c r="C7">
-        <v>0.1444913379837658</v>
+        <v>0.2416910531055265</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3545544994436653</v>
+        <v>0.4663921935336219</v>
       </c>
       <c r="F7">
-        <v>2.911307970433171</v>
+        <v>2.172253628878735</v>
       </c>
       <c r="G7">
-        <v>0.002513464164135429</v>
+        <v>0.0008291721887956959</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.048723397934594</v>
+        <v>0.5955106221612709</v>
       </c>
       <c r="J7">
-        <v>0.1099144465032644</v>
+        <v>0.06593779134255584</v>
       </c>
       <c r="K7">
-        <v>0.6533280926603595</v>
+        <v>1.13440781524676</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.108406365267534</v>
+        <v>1.153323590421607</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5705993992849017</v>
+        <v>1.111236100815603</v>
       </c>
       <c r="C8">
-        <v>0.1569186683289558</v>
+        <v>0.2922747120185818</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3769038088499599</v>
+        <v>0.565320960152377</v>
       </c>
       <c r="F8">
-        <v>2.960292810033962</v>
+        <v>2.470186777204347</v>
       </c>
       <c r="G8">
-        <v>0.002508601657330624</v>
+        <v>0.0008213590469123967</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.04424064424353</v>
+        <v>0.6098866701978309</v>
       </c>
       <c r="J8">
-        <v>0.1098163725891652</v>
+        <v>0.0691769666810913</v>
       </c>
       <c r="K8">
-        <v>0.7146936487876019</v>
+        <v>1.375269678868221</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.081747809907078</v>
+        <v>1.085924769342448</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6717747354526296</v>
+        <v>1.504375749165348</v>
       </c>
       <c r="C9">
-        <v>0.1820869130135065</v>
+        <v>0.3958179883630635</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4223792506681718</v>
+        <v>0.7656400445859788</v>
       </c>
       <c r="F9">
-        <v>3.070093231799206</v>
+        <v>3.097023991922669</v>
       </c>
       <c r="G9">
-        <v>0.002500003543264998</v>
+        <v>0.0008068145267037997</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.039663658355934</v>
+        <v>0.6495546708834539</v>
       </c>
       <c r="J9">
-        <v>0.1101081405951803</v>
+        <v>0.07696001847600087</v>
       </c>
       <c r="K9">
-        <v>0.8381784187685639</v>
+        <v>1.862346277178574</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.035003226755862</v>
+        <v>0.9675523883476558</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7475738205519065</v>
+        <v>1.802285799347089</v>
       </c>
       <c r="C10">
-        <v>0.2010792749191523</v>
+        <v>0.4756140834120401</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.4568128779563239</v>
+        <v>0.9183447426394196</v>
       </c>
       <c r="F10">
-        <v>3.159233035162544</v>
+        <v>3.591514513022958</v>
       </c>
       <c r="G10">
-        <v>0.002494251648185358</v>
+        <v>0.000796535284318297</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.038887095219764</v>
+        <v>0.6872100454645533</v>
       </c>
       <c r="J10">
-        <v>0.1106204398331698</v>
+        <v>0.08376690189725622</v>
       </c>
       <c r="K10">
-        <v>0.9308558378941711</v>
+        <v>2.232955283561694</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.004044668464076</v>
+        <v>0.8901196877154831</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7823796787389483</v>
+        <v>1.940460628588511</v>
       </c>
       <c r="C11">
-        <v>0.2098315329916716</v>
+        <v>0.512993845918885</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.47270386642451</v>
+        <v>0.9894404425719188</v>
       </c>
       <c r="F11">
-        <v>3.201645087382246</v>
+        <v>3.825855040987307</v>
       </c>
       <c r="G11">
-        <v>0.002491756347313045</v>
+        <v>0.0007919306974705567</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.039099258019569</v>
+        <v>0.7065672490855732</v>
       </c>
       <c r="J11">
-        <v>0.1109188213614303</v>
+        <v>0.08715433985696563</v>
       </c>
       <c r="K11">
-        <v>0.9734494934932059</v>
+        <v>2.405266509494936</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.990698353234315</v>
+        <v>0.85724656355832</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7956066114278144</v>
+        <v>1.99322849027061</v>
       </c>
       <c r="C12">
-        <v>0.2131621943268556</v>
+        <v>0.527329305481544</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4787542641138742</v>
+        <v>1.016637054392277</v>
       </c>
       <c r="F12">
-        <v>3.217974636691906</v>
+        <v>3.916133859821855</v>
       </c>
       <c r="G12">
-        <v>0.002490828778619148</v>
+        <v>0.0007901958106714785</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.039261208412881</v>
+        <v>0.7142531814093473</v>
       </c>
       <c r="J12">
-        <v>0.1110412542488035</v>
+        <v>0.08848404611286043</v>
       </c>
       <c r="K12">
-        <v>0.9896414955020703</v>
+        <v>2.47113895702509</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.98575067536953</v>
+        <v>0.8451633587902379</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7927558765242111</v>
+        <v>1.981843171664678</v>
       </c>
       <c r="C13">
-        <v>0.2124441456774377</v>
+        <v>0.5242334445832455</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4774497397508668</v>
+        <v>1.010766894985906</v>
       </c>
       <c r="F13">
-        <v>3.214445790408803</v>
+        <v>3.896619017390776</v>
       </c>
       <c r="G13">
-        <v>0.002491027777097585</v>
+        <v>0.0007905690852961856</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.039222695077775</v>
+        <v>0.7125814488728253</v>
       </c>
       <c r="J13">
-        <v>0.1110144654286813</v>
+        <v>0.08819549389800585</v>
       </c>
       <c r="K13">
-        <v>0.9861514648217167</v>
+        <v>2.456922996815024</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.986811514265725</v>
+        <v>0.8477489914371574</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.783466930011997</v>
+        <v>1.944792591384726</v>
       </c>
       <c r="C14">
-        <v>0.2101052193138457</v>
+        <v>0.5141694593473858</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4732009773196921</v>
+        <v>0.9916721829789878</v>
       </c>
       <c r="F14">
-        <v>3.202983130127109</v>
+        <v>3.833250331743926</v>
       </c>
       <c r="G14">
-        <v>0.002491679688413104</v>
+        <v>0.0007917878008059129</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.039110944472021</v>
+        <v>0.7071922281487701</v>
       </c>
       <c r="J14">
-        <v>0.1109287044781908</v>
+        <v>0.08726276311077186</v>
       </c>
       <c r="K14">
-        <v>0.9747803609043331</v>
+        <v>2.410672878087382</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.990289172904653</v>
+        <v>0.8562449878164458</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7777832666262157</v>
+        <v>1.922157836425498</v>
       </c>
       <c r="C15">
-        <v>0.2086746970218201</v>
+        <v>0.5080292894871832</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4706027681454401</v>
+        <v>0.980013096387097</v>
       </c>
       <c r="F15">
-        <v>3.195996993279465</v>
+        <v>3.794641577878849</v>
       </c>
       <c r="G15">
-        <v>0.002492081259739396</v>
+        <v>0.0007925353937607975</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.039053130899987</v>
+        <v>0.7039386257827545</v>
       </c>
       <c r="J15">
-        <v>0.110877404497451</v>
+        <v>0.08669771554576755</v>
       </c>
       <c r="K15">
-        <v>0.9678234060437205</v>
+        <v>2.382427085416964</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.992433189842416</v>
+        <v>0.8614974346708735</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7453057093071891</v>
+        <v>1.793314340178227</v>
       </c>
       <c r="C16">
-        <v>0.2005095748631049</v>
+        <v>0.4731950556057427</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4557789475206704</v>
+        <v>0.9137345653300457</v>
       </c>
       <c r="F16">
-        <v>3.156498883606247</v>
+        <v>3.576404459835288</v>
       </c>
       <c r="G16">
-        <v>0.00249441715459664</v>
+        <v>0.000796837517914881</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.038884633374138</v>
+        <v>0.6859927763372511</v>
       </c>
       <c r="J16">
-        <v>0.1106022586193234</v>
+        <v>0.08355180418709551</v>
       </c>
       <c r="K16">
-        <v>0.92808100283969</v>
+        <v>2.221776414074753</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.00493173671827</v>
+        <v>0.8923175816849067</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7254649196460718</v>
+        <v>1.714995151345164</v>
       </c>
       <c r="C17">
-        <v>0.195529493714389</v>
+        <v>0.4521191038020902</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4467432762646268</v>
+        <v>0.8735191310525465</v>
       </c>
       <c r="F17">
-        <v>3.132745860659583</v>
+        <v>3.445056585614026</v>
       </c>
       <c r="G17">
-        <v>0.002495881144680798</v>
+        <v>0.00079949401577184</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.038926297981718</v>
+        <v>0.6755781726736032</v>
       </c>
       <c r="J17">
-        <v>0.1104502326447161</v>
+        <v>0.08169987510451904</v>
       </c>
       <c r="K17">
-        <v>0.9038117306001539</v>
+        <v>2.124234103560809</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.012788149965616</v>
+        <v>0.9118452988645771</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7140835598649744</v>
+        <v>1.670193730609611</v>
       </c>
       <c r="C18">
-        <v>0.1926756638951588</v>
+        <v>0.4400967702628122</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4415675480207284</v>
+        <v>0.8505390101266528</v>
       </c>
       <c r="F18">
-        <v>3.119258923666081</v>
+        <v>3.370380549462595</v>
       </c>
       <c r="G18">
-        <v>0.002496734612643546</v>
+        <v>0.0008010287911786868</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.039003464596419</v>
+        <v>0.6697953042163718</v>
       </c>
       <c r="J18">
-        <v>0.110368938012428</v>
+        <v>0.08066174204158472</v>
       </c>
       <c r="K18">
-        <v>0.8898935427130823</v>
+        <v>2.068474687316211</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.017376291039213</v>
+        <v>0.9232966687478381</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7102352704293367</v>
+        <v>1.655065144202325</v>
       </c>
       <c r="C19">
-        <v>0.1917112177734168</v>
+        <v>0.4360426658350605</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4398187967173612</v>
+        <v>0.8427830847449655</v>
       </c>
       <c r="F19">
-        <v>3.114722525933161</v>
+        <v>3.345240859850634</v>
       </c>
       <c r="G19">
-        <v>0.002497025546340538</v>
+        <v>0.000801549656128211</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.039038720301662</v>
+        <v>0.6678719150083339</v>
       </c>
       <c r="J19">
-        <v>0.1103424673125133</v>
+        <v>0.08031474665820326</v>
       </c>
       <c r="K19">
-        <v>0.8851880924278532</v>
+        <v>2.049652145047645</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.01894165638361</v>
+        <v>0.9272108370145418</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7275738446947742</v>
+        <v>1.723306502073626</v>
       </c>
       <c r="C20">
-        <v>0.1960585353883175</v>
+        <v>0.4543521517983038</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4477029278079101</v>
+        <v>0.877784258370724</v>
       </c>
       <c r="F20">
-        <v>3.135256271431018</v>
+        <v>3.458947267722948</v>
       </c>
       <c r="G20">
-        <v>0.002495724119275855</v>
+        <v>0.0007992105308297637</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.038916354301527</v>
+        <v>0.6766651217011557</v>
       </c>
       <c r="J20">
-        <v>0.1104657795698074</v>
+        <v>0.08189418152804961</v>
       </c>
       <c r="K20">
-        <v>0.906391005751459</v>
+        <v>2.134581409975709</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.011944642633708</v>
+        <v>0.9097436318349139</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7861940506535916</v>
+        <v>1.955662662641089</v>
       </c>
       <c r="C21">
-        <v>0.2107917728608868</v>
+        <v>0.5171203800482544</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4744480494427563</v>
+        <v>0.9972729789559054</v>
       </c>
       <c r="F21">
-        <v>3.206342679691943</v>
+        <v>3.851819871251166</v>
       </c>
       <c r="G21">
-        <v>0.002491487736475489</v>
+        <v>0.0007914296092436102</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.039141551069683</v>
+        <v>0.7087652153813906</v>
       </c>
       <c r="J21">
-        <v>0.1109536379077483</v>
+        <v>0.08753541066940329</v>
       </c>
       <c r="K21">
-        <v>0.9781186256931562</v>
+        <v>2.424240038502262</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.9892648132316</v>
+        <v>0.8537393679609337</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8247780307439143</v>
+        <v>2.110143105724831</v>
       </c>
       <c r="C22">
-        <v>0.2205163080210184</v>
+        <v>0.5592093312212114</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4921189539396096</v>
+        <v>1.07698619428092</v>
       </c>
       <c r="F22">
-        <v>3.254370454385622</v>
+        <v>4.117659634042269</v>
       </c>
       <c r="G22">
-        <v>0.002488820089259308</v>
+        <v>0.0007863946291967298</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.039764552017004</v>
+        <v>0.7318375740239915</v>
       </c>
       <c r="J22">
-        <v>0.1113275407195573</v>
+        <v>0.09149879122369953</v>
       </c>
       <c r="K22">
-        <v>1.025362417502436</v>
+        <v>2.61722131444472</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.975061878597572</v>
+        <v>0.8192803955380654</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8041601019435518</v>
+        <v>2.027431627054057</v>
       </c>
       <c r="C23">
-        <v>0.2153173382806415</v>
+        <v>0.5366389865539531</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4826700810072992</v>
+        <v>1.03427901474511</v>
       </c>
       <c r="F23">
-        <v>3.22859316145491</v>
+        <v>3.974877621252091</v>
       </c>
       <c r="G23">
-        <v>0.002490234644163029</v>
+        <v>0.0007890778312600244</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.039388406429865</v>
+        <v>0.7193191542229158</v>
       </c>
       <c r="J23">
-        <v>0.1111229280501007</v>
+        <v>0.08935631258576393</v>
       </c>
       <c r="K23">
-        <v>1.000113969840953</v>
+        <v>2.513856191580885</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.982585447906459</v>
+        <v>0.8374659816811558</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7266203206446278</v>
+        <v>1.719548243207441</v>
       </c>
       <c r="C24">
-        <v>0.1958193267405761</v>
+        <v>0.4533422982865432</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4472690101831347</v>
+        <v>0.8758555603599802</v>
       </c>
       <c r="F24">
-        <v>3.134120788394114</v>
+        <v>3.452664695343657</v>
       </c>
       <c r="G24">
-        <v>0.002495795073597106</v>
+        <v>0.0007993386707963472</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.038920684093867</v>
+        <v>0.6761730773141252</v>
       </c>
       <c r="J24">
-        <v>0.1104587317863235</v>
+        <v>0.08180625322732027</v>
       </c>
       <c r="K24">
-        <v>0.9052248078882883</v>
+        <v>2.129902405727336</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.0123257699383</v>
+        <v>0.9106930978469379</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6441481385176644</v>
+        <v>1.39664008004624</v>
       </c>
       <c r="C25">
-        <v>0.1751912735393262</v>
+        <v>0.3672370088045795</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4098986244266314</v>
+        <v>0.7106090937848393</v>
       </c>
       <c r="F25">
-        <v>3.038908726877082</v>
+        <v>2.922111184833284</v>
       </c>
       <c r="G25">
-        <v>0.002502229868535008</v>
+        <v>0.0008106725927659523</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.040448967481709</v>
+        <v>0.6374470500893707</v>
       </c>
       <c r="J25">
-        <v>0.1099770945790226</v>
+        <v>0.07468025666514677</v>
       </c>
       <c r="K25">
-        <v>0.8044320492000736</v>
+        <v>1.728633401134033</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.04705535933752</v>
+        <v>0.9979888524181391</v>
       </c>
       <c r="O25">
         <v>0</v>
